--- a/FormulaOneStatistics/wwwroot/export.xlsx
+++ b/FormulaOneStatistics/wwwroot/export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myi\source\repos\YuraMelnikov\FormulaOneStatisticsApps\FormulaOneStatistics\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11508D3-3587-492D-BFCE-C7564ED2E9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F73C83-FCCA-4989-BB52-0B2B19F968DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" activeTab="8" xr2:uid="{D2C809F8-A13E-4065-B48E-438F2B0A2290}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="810" activeTab="2" xr2:uid="{D2C809F8-A13E-4065-B48E-438F2B0A2290}"/>
   </bookViews>
   <sheets>
     <sheet name="TrackСonfiguration" sheetId="15" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3834" uniqueCount="2356">
   <si>
     <t>Position</t>
   </si>
@@ -7110,6 +7110,12 @@
   </si>
   <si>
     <t>Haas F1 Team</t>
+  </si>
+  <si>
+    <t>29.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -7176,7 +7182,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7198,20 +7203,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7248,6 +7245,12 @@
           <color theme="9"/>
         </left>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7308,6 +7311,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -7338,9 +7347,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7358,7 +7364,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7080450C-30EC-4EEB-B612-1D0B852D3DCC}" name="Table11" displayName="Table11" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{7080450C-30EC-4EEB-B612-1D0B852D3DCC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8BFFA796-1B75-473B-B78E-5D0E3B542917}" name="Track" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{8BFFA796-1B75-473B-B78E-5D0E3B542917}" name="Track" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{E6DC4CBF-CB53-4B9D-AFC8-9BE8A0ADA3F2}" name="Length"/>
     <tableColumn id="3" xr3:uid="{9C2A5F81-0A3B-4AAC-9BE7-2EB07A627FE4}" name="Note"/>
     <tableColumn id="4" xr3:uid="{1896FD25-9196-4B5B-AD65-3D380333D921}" name="IdImage"/>
@@ -7392,7 +7398,7 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B78C3D2F-D0E7-4DD9-82FB-AEE92AA239D3}" name="Season"/>
     <tableColumn id="2" xr3:uid="{9C76AC79-70AA-4DA3-963D-3C90489F25AA}" name="Track"/>
-    <tableColumn id="3" xr3:uid="{7C7D5072-CF2E-408F-929B-5468B2991E1B}" name="Date" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{7C7D5072-CF2E-408F-929B-5468B2991E1B}" name="Date" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{E9EDFF6A-551E-4CE8-9146-B9DC7434D19E}" name="FullName"/>
     <tableColumn id="5" xr3:uid="{9C8EF04B-C8FA-4DCA-AB31-DDB61B252693}" name="Weather"/>
     <tableColumn id="6" xr3:uid="{1416D17C-574E-45B6-B453-3C01637E3664}" name="NumberOfLap"/>
@@ -7405,29 +7411,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{407F36BC-1B3B-44CD-9017-54DE1395BED3}" name="Table4" displayName="Table4" ref="A1:T21" totalsRowShown="0" headerRowDxfId="2" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{407F36BC-1B3B-44CD-9017-54DE1395BED3}" name="Table4" displayName="Table4" ref="A1:T21" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:T21" xr:uid="{407F36BC-1B3B-44CD-9017-54DE1395BED3}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{7EDFEBC9-4C7A-42D7-91B2-419DF7AC1D90}" name="Driver" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{FC39644F-FE3E-4C31-A95C-3972D1CC8F82}" name="Chassis" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{BBFAE322-D07B-43FF-A66B-5DCF6147B7DF}" name="Engine" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{E1A11CF3-16DE-4684-A8AD-5ACDB002B7B4}" name="Tyre" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{8A933CDF-BEAF-4F6B-A2DB-B027256F77FE}" name="Number" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{31A0B813-BCC9-4ED6-B774-2C87FE771522}" name="Classification" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{61177F5D-23C1-4EF4-9D65-8D48D8621A44}" name="Time" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{58DF7FD3-B3DC-497D-8629-B47C388365CE}" name="AverageSpeed" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{0E1FC282-6EEA-413E-AC77-49A479D8D71F}" name="Lap" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{0B305517-8524-46CE-866C-62CA03ABDE5B}" name="Points" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{8CD6F3D3-8D14-463F-A722-9226461FADE5}" name="Position" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{69ED6144-2FE0-4EBE-8281-6EF5B9BEB7D8}" name="Note" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{58ADBB17-E6ED-4134-86AB-AB4FF30EFAAB}" name="ClassificationRus" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{B23B1846-9AF1-4D79-A450-96D5521C3F9C}" name="NoteRus" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{B703FDD3-2B54-4253-AC3A-DC3090F92A3C}" name="FastestLap" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{5A180375-9AAA-4E6F-8304-9C0AD88E952F}" name="FastestLapSpeed" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{66F9D949-D5F7-4A51-BF09-BD6F7FA7B5CC}" name="FastestLapTime" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{F09B4900-8050-42F0-A12F-2CB5FE775FD1}" name="TimeLag" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{57EABE1A-7C95-4C30-924B-EC302CA66181}" name="constructor" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{F539F5F2-8C40-4C9D-9D24-870B845D76E4}" name="team name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7EDFEBC9-4C7A-42D7-91B2-419DF7AC1D90}" name="Driver" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{FC39644F-FE3E-4C31-A95C-3972D1CC8F82}" name="Chassis" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BBFAE322-D07B-43FF-A66B-5DCF6147B7DF}" name="Engine" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{E1A11CF3-16DE-4684-A8AD-5ACDB002B7B4}" name="Tyre" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{8A933CDF-BEAF-4F6B-A2DB-B027256F77FE}" name="Number" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{31A0B813-BCC9-4ED6-B774-2C87FE771522}" name="Classification" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{61177F5D-23C1-4EF4-9D65-8D48D8621A44}" name="Time" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{58DF7FD3-B3DC-497D-8629-B47C388365CE}" name="AverageSpeed" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{0E1FC282-6EEA-413E-AC77-49A479D8D71F}" name="Lap" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{0B305517-8524-46CE-866C-62CA03ABDE5B}" name="Points" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{8CD6F3D3-8D14-463F-A722-9226461FADE5}" name="Position" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{69ED6144-2FE0-4EBE-8281-6EF5B9BEB7D8}" name="Note" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{58ADBB17-E6ED-4134-86AB-AB4FF30EFAAB}" name="ClassificationRus" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{B23B1846-9AF1-4D79-A450-96D5521C3F9C}" name="NoteRus" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{B703FDD3-2B54-4253-AC3A-DC3090F92A3C}" name="FastestLap" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{5A180375-9AAA-4E6F-8304-9C0AD88E952F}" name="FastestLapSpeed" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{66F9D949-D5F7-4A51-BF09-BD6F7FA7B5CC}" name="FastestLapTime" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{F09B4900-8050-42F0-A12F-2CB5FE775FD1}" name="TimeLag" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{57EABE1A-7C95-4C30-924B-EC302CA66181}" name="constructor" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{F539F5F2-8C40-4C9D-9D24-870B845D76E4}" name="team name" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7470,10 +7476,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735222CE-F35A-45C6-AFD1-E6F9F80D0480}" name="Table9" displayName="Table9" ref="A1:C2" totalsRowShown="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{735222CE-F35A-45C6-AFD1-E6F9F80D0480}" name="Table9" displayName="Table9" ref="A1:C2" totalsRowShown="0" tableBorderDxfId="1">
   <autoFilter ref="A1:C2" xr:uid="{735222CE-F35A-45C6-AFD1-E6F9F80D0480}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65083137-A393-4885-99E1-289CD1049EDB}" name="driver" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{65083137-A393-4885-99E1-289CD1049EDB}" name="driver" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1CFD1DF1-361C-4F06-B12C-0F6F0317D8EA}" name="time"/>
     <tableColumn id="3" xr3:uid="{97C81700-81F0-4DCE-BD30-34C7891F820E}" name="AverageSpeed"/>
   </tableColumns>
@@ -16490,13 +16496,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="24.7109375" customWidth="1"/>
@@ -16511,7 +16517,7 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
@@ -16540,8 +16546,8 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2">
-        <v>44710</v>
+      <c r="C2" s="9" t="s">
+        <v>2354</v>
       </c>
       <c r="D2" t="s">
         <v>2215</v>
@@ -16570,188 +16576,200 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE2E158-09D9-43FB-85B2-3E9E0EE78462}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="6" customWidth="1"/>
-    <col min="8" max="18" width="11.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="6" width="11.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="18" width="11.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>2342</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>2343</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2302</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2305</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2217</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>2253</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>64</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>25</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
+      <c r="L2" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="O2" s="3">
+      <c r="N2" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O2" s="2">
         <v>46</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>2218</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>2217</v>
       </c>
       <c r="S2" t="s">
         <v>2034</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>2347</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2003</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2304</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>55</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>2275</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>2254</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>64</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>18</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="L3" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="O3" s="3">
+      <c r="N3" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O3" s="2">
         <v>47</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>2220</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>2219</v>
       </c>
       <c r="S3" t="s">
@@ -16762,108 +16780,120 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>2302</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2305</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>2276</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>2255</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>64</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>15</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>3</v>
       </c>
-      <c r="M4" s="3">
+      <c r="L4" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="O4" s="3">
+      <c r="N4" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O4" s="2">
         <v>47</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>2222</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>2221</v>
       </c>
       <c r="S4" t="s">
         <v>2034</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>2347</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2014</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2298</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2304</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>16</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>2277</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>2256</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>64</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>12</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>4</v>
       </c>
-      <c r="M5" s="3">
+      <c r="L5" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M5" s="2">
         <v>4</v>
       </c>
-      <c r="O5" s="3">
+      <c r="N5" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O5" s="2">
         <v>46</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>2224</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>2223</v>
       </c>
       <c r="S5" t="s">
@@ -16874,108 +16904,120 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2017</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>2301</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>63</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>2278</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>2257</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>64</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>10</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>5</v>
       </c>
-      <c r="M6" s="3">
+      <c r="L6" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M6" s="2">
         <v>5</v>
       </c>
-      <c r="O6" s="3">
+      <c r="N6" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O6" s="2">
         <v>42</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>2226</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="5" t="s">
         <v>2225</v>
       </c>
       <c r="S6" t="s">
         <v>2135</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="8" t="s">
         <v>2344</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>2016</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>2300</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>2279</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>2258</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>64</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>9</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>6</v>
       </c>
-      <c r="M7" s="3">
+      <c r="L7" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M7" s="2">
         <v>6</v>
       </c>
-      <c r="O7" s="3">
+      <c r="N7" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O7" s="2">
         <v>55</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="5" t="s">
         <v>2227</v>
       </c>
       <c r="S7" t="s">
@@ -16986,52 +17028,58 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>2296</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>2306</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>2280</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>2259</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>64</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>6</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>7</v>
       </c>
-      <c r="M8" s="3">
+      <c r="L8" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M8" s="2">
         <v>7</v>
       </c>
-      <c r="O8" s="3">
+      <c r="N8" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O8" s="2">
         <v>50</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>2230</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>2229</v>
       </c>
       <c r="S8" t="s">
@@ -17042,108 +17090,120 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>2301</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>44</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>2281</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>2260</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>64</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="L9" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M9" s="2">
         <v>8</v>
       </c>
-      <c r="O9" s="3">
+      <c r="N9" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O9" s="2">
         <v>51</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="5" t="s">
         <v>2231</v>
       </c>
       <c r="S9" t="s">
         <v>2135</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="8" t="s">
         <v>2344</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>1993</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>2304</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>77</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>9</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>2282</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>2261</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>64</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>9</v>
       </c>
-      <c r="M10" s="3">
+      <c r="L10" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M10" s="2">
         <v>9</v>
       </c>
-      <c r="O10" s="3">
+      <c r="N10" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O10" s="2">
         <v>57</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>2234</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>2233</v>
       </c>
       <c r="S10" t="s">
@@ -17154,52 +17214,58 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2297</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>2283</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>2262</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>64</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>10</v>
       </c>
-      <c r="M11" s="3">
+      <c r="L11" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M11" s="2">
         <v>10</v>
       </c>
-      <c r="O11" s="3">
+      <c r="N11" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O11" s="2">
         <v>54</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>2236</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>2235</v>
       </c>
       <c r="S11" t="s">
@@ -17210,52 +17276,58 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>2295</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>2305</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>2284</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>2263</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>64</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>11</v>
       </c>
-      <c r="M12" s="3">
+      <c r="L12" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M12" s="2">
         <v>11</v>
       </c>
-      <c r="O12" s="3">
+      <c r="N12" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O12" s="2">
         <v>61</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="2" t="s">
         <v>2238</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="5" t="s">
         <v>2237</v>
       </c>
       <c r="S12" t="s">
@@ -17266,52 +17338,58 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>2010</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>2296</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>2306</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>31</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>2285</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>2264</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>64</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>12</v>
       </c>
-      <c r="M13" s="3">
+      <c r="L13" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M13" s="2">
         <v>12</v>
       </c>
-      <c r="O13" s="3">
+      <c r="N13" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O13" s="2">
         <v>50</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>2240</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>2239</v>
       </c>
       <c r="S13" t="s">
@@ -17322,52 +17400,58 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>2300</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>2286</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>2265</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>64</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>13</v>
       </c>
-      <c r="M14" s="3">
+      <c r="L14" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M14" s="2">
         <v>13</v>
       </c>
-      <c r="O14" s="3">
+      <c r="N14" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O14" s="2">
         <v>59</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>2242</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="5" t="s">
         <v>2241</v>
       </c>
       <c r="S14" t="s">
@@ -17378,52 +17462,58 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>2011</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>2297</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>18</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>2287</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>2266</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>64</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>14</v>
       </c>
-      <c r="M15" s="3">
+      <c r="L15" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M15" s="2">
         <v>14</v>
       </c>
-      <c r="O15" s="3">
+      <c r="N15" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O15" s="2">
         <v>56</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>2244</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="5" t="s">
         <v>2243</v>
       </c>
       <c r="S15" t="s">
@@ -17434,52 +17524,58 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>2303</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>6</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>2288</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>2267</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>63</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>15</v>
       </c>
-      <c r="M16" s="3">
+      <c r="L16" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M16" s="2">
         <v>15</v>
       </c>
-      <c r="O16" s="3">
+      <c r="N16" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O16" s="2">
         <v>43</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="2" t="s">
         <v>2245</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>2273</v>
       </c>
       <c r="S16" t="s">
@@ -17490,52 +17586,58 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>2304</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>24</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>2289</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>2268</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>63</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>16</v>
       </c>
-      <c r="M17" s="3">
+      <c r="L17" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M17" s="2">
         <v>16</v>
       </c>
-      <c r="O17" s="3">
+      <c r="N17" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O17" s="2">
         <v>52</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="2" t="s">
         <v>2246</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="5" t="s">
         <v>2273</v>
       </c>
       <c r="S17" t="s">
@@ -17546,52 +17648,58 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>2022</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>2295</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>2305</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>22</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>17</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>2290</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>2269</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>63</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>17</v>
       </c>
-      <c r="M18" s="3">
+      <c r="L18" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M18" s="2">
         <v>17</v>
       </c>
-      <c r="O18" s="3">
+      <c r="N18" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O18" s="2">
         <v>61</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="2" t="s">
         <v>2247</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="5" t="s">
         <v>2273</v>
       </c>
       <c r="S18" t="s">
@@ -17602,56 +17710,59 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>2303</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>2307</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>23</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>2291</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>2270</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>48</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>18</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>2311</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>2252</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="2" t="s">
         <v>2308</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>40</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="2" t="s">
         <v>2248</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="2" t="s">
         <v>924</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>2355</v>
       </c>
       <c r="S19" t="s">
         <v>1566</v>
@@ -17661,56 +17772,59 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>2304</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>47</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>2292</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>2271</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>24</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>19</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>2312</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>2252</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>2309</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <v>24</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>2249</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>884</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>2355</v>
       </c>
       <c r="S20" t="s">
         <v>2208</v>
@@ -17720,56 +17834,59 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>1996</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>2299</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>2304</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>2251</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>20</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>2274</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>2293</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>2272</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>19</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>20</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>2311</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>2252</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="2" t="s">
         <v>2310</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>18</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>2250</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="2" t="s">
         <v>797</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>2355</v>
       </c>
       <c r="S21" t="s">
         <v>2208</v>
@@ -17777,9 +17894,6 @@
       <c r="T21" t="s">
         <v>2353</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34602,7 +34716,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1481</v>
       </c>
       <c r="B1" t="s">
@@ -34613,7 +34727,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2016</v>
       </c>
       <c r="B2" t="s">
@@ -34780,7 +34894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EB760D-3C86-4576-988A-1FC59FC98496}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
